--- a/صيدليات دكتور مصطفي طلعت_2026-01-05_22-42.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-05_22-42.xlsx
@@ -539,13 +539,7 @@
     <t>سرنجات 10 سم</t>
   </si>
   <si>
-    <t>-3:0</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>-2:0</t>
   </si>
   <si>
     <t>12:0</t>
@@ -4772,7 +4766,7 @@
       <c r="F141" s="7"/>
       <c r="G141" s="7"/>
       <c t="s" r="H141" s="8">
-        <v>176</v>
+        <v>16</v>
       </c>
       <c r="I141" s="8"/>
       <c r="J141" s="8"/>
@@ -4790,7 +4784,7 @@
         <v>139</v>
       </c>
       <c t="s" r="B142" s="7">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C142" s="7"/>
       <c r="D142" s="7"/>
@@ -4798,7 +4792,7 @@
       <c r="F142" s="7"/>
       <c r="G142" s="7"/>
       <c t="s" r="H142" s="8">
-        <v>178</v>
+        <v>16</v>
       </c>
       <c r="I142" s="8"/>
       <c r="J142" s="8"/>
@@ -4808,7 +4802,7 @@
       </c>
       <c r="M142" s="9"/>
       <c t="s" r="N142" s="7">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="143" ht="25.5" customHeight="1">
@@ -4816,7 +4810,7 @@
         <v>140</v>
       </c>
       <c t="s" r="B143" s="7">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C143" s="7"/>
       <c r="D143" s="7"/>
@@ -4824,7 +4818,7 @@
       <c r="F143" s="7"/>
       <c r="G143" s="7"/>
       <c t="s" r="H143" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I143" s="8"/>
       <c r="J143" s="8"/>
@@ -4834,7 +4828,7 @@
       </c>
       <c r="M143" s="9"/>
       <c t="s" r="N143" s="7">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="144" ht="24.75" customHeight="1">
@@ -4842,7 +4836,7 @@
         <v>141</v>
       </c>
       <c t="s" r="B144" s="7">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C144" s="7"/>
       <c r="D144" s="7"/>
@@ -4850,7 +4844,7 @@
       <c r="F144" s="7"/>
       <c r="G144" s="7"/>
       <c t="s" r="H144" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I144" s="8"/>
       <c r="J144" s="8"/>
@@ -4868,7 +4862,7 @@
         <v>142</v>
       </c>
       <c t="s" r="B145" s="7">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C145" s="7"/>
       <c r="D145" s="7"/>
@@ -4876,7 +4870,7 @@
       <c r="F145" s="7"/>
       <c r="G145" s="7"/>
       <c t="s" r="H145" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I145" s="8"/>
       <c r="J145" s="8"/>
@@ -4894,7 +4888,7 @@
         <v>143</v>
       </c>
       <c t="s" r="B146" s="7">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C146" s="7"/>
       <c r="D146" s="7"/>
@@ -4920,7 +4914,7 @@
         <v>144</v>
       </c>
       <c t="s" r="B147" s="7">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C147" s="7"/>
       <c r="D147" s="7"/>
@@ -4928,7 +4922,7 @@
       <c r="F147" s="7"/>
       <c r="G147" s="7"/>
       <c t="s" r="H147" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I147" s="8"/>
       <c r="J147" s="8"/>
@@ -4946,7 +4940,7 @@
         <v>145</v>
       </c>
       <c t="s" r="B148" s="7">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C148" s="7"/>
       <c r="D148" s="7"/>
@@ -4972,7 +4966,7 @@
         <v>146</v>
       </c>
       <c t="s" r="B149" s="7">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C149" s="7"/>
       <c r="D149" s="7"/>
@@ -4998,7 +4992,7 @@
         <v>147</v>
       </c>
       <c t="s" r="B150" s="7">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C150" s="7"/>
       <c r="D150" s="7"/>
@@ -5006,7 +5000,7 @@
       <c r="F150" s="7"/>
       <c r="G150" s="7"/>
       <c t="s" r="H150" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I150" s="8"/>
       <c r="J150" s="8"/>
@@ -5024,7 +5018,7 @@
         <v>148</v>
       </c>
       <c t="s" r="B151" s="7">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C151" s="7"/>
       <c r="D151" s="7"/>
@@ -5032,7 +5026,7 @@
       <c r="F151" s="7"/>
       <c r="G151" s="7"/>
       <c t="s" r="H151" s="8">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="I151" s="8"/>
       <c r="J151" s="8"/>
@@ -5050,7 +5044,7 @@
         <v>149</v>
       </c>
       <c t="s" r="B152" s="7">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C152" s="7"/>
       <c r="D152" s="7"/>
@@ -5058,7 +5052,7 @@
       <c r="F152" s="7"/>
       <c r="G152" s="7"/>
       <c t="s" r="H152" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I152" s="8"/>
       <c r="J152" s="8"/>
@@ -5076,7 +5070,7 @@
         <v>150</v>
       </c>
       <c t="s" r="B153" s="7">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C153" s="7"/>
       <c r="D153" s="7"/>
@@ -5102,7 +5096,7 @@
         <v>151</v>
       </c>
       <c t="s" r="B154" s="7">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C154" s="7"/>
       <c r="D154" s="7"/>
@@ -5110,7 +5104,7 @@
       <c r="F154" s="7"/>
       <c r="G154" s="7"/>
       <c t="s" r="H154" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I154" s="8"/>
       <c r="J154" s="8"/>
@@ -5128,7 +5122,7 @@
         <v>152</v>
       </c>
       <c t="s" r="B155" s="7">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
@@ -5154,7 +5148,7 @@
         <v>153</v>
       </c>
       <c t="s" r="B156" s="7">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C156" s="7"/>
       <c r="D156" s="7"/>
@@ -5180,7 +5174,7 @@
         <v>154</v>
       </c>
       <c t="s" r="B157" s="7">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C157" s="7"/>
       <c r="D157" s="7"/>
@@ -5211,19 +5205,19 @@
     </row>
     <row r="159" ht="17.25" customHeight="1">
       <c t="s" r="A159" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B159" s="11"/>
       <c r="C159" s="11"/>
       <c r="D159" s="11"/>
       <c r="E159" s="11"/>
       <c t="s" r="F159" s="12">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G159" s="12"/>
       <c r="H159" s="13"/>
       <c t="s" r="I159" s="14">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J159" s="14"/>
       <c r="K159" s="14"/>
